--- a/doc/AT24C02/校准值.xlsx
+++ b/doc/AT24C02/校准值.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\ARM\openDMM_UT61Eplus\doc\AT24C02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743B841E-39F8-4FE3-9860-21BB97F6F498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A10F4F-EF64-46D4-91A0-C5FB7DE8453A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="825" windowWidth="20715" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="1725" windowWidth="20715" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="295">
   <si>
     <t>01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1064,6 +1064,12 @@
   <si>
     <t>电容档底数？</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直流电压校准值1V</t>
+  </si>
+  <si>
+    <t>二极管档电压3V，精度0.001V</t>
   </si>
 </sst>
 </file>
@@ -1576,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1639,6 +1645,9 @@
         <f>HEX2DEC(E3)</f>
         <v>9843</v>
       </c>
+      <c r="G3" s="13" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -1672,6 +1681,9 @@
       <c r="F5" s="3">
         <f>HEX2DEC(E5)</f>
         <v>3019</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
